--- a/export.xlsx
+++ b/export.xlsx
@@ -15,7 +15,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>OccupationalSkill</t>
+  </si>
+  <si>
+    <t>Occ_Code</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>CivilStat</t>
+  </si>
+  <si>
+    <t>EducAttain</t>
+  </si>
+  <si>
+    <t>YearsofWorkExp</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>Licence</t>
+  </si>
+  <si>
+    <t>DateRegistered</t>
+  </si>
+  <si>
+    <t>JobPlacement</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
+    <t>YearGraduated</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Emp_Stat</t>
+  </si>
+  <si>
+    <t>ag, qwertyt a.</t>
+  </si>
+  <si>
+    <t>May 16 2018</t>
+  </si>
+  <si>
+    <t>Flores, Sylvester B.</t>
+  </si>
+  <si>
+    <t>Apr 16 2018</t>
+  </si>
+  <si>
+    <t>Nov 14 1982</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27,18 +106,24 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8A8A8A"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -49,8 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -352,14 +440,159 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.687849" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="21.096889" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10.548444" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="4.4887" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="4.4887" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.670619" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="12.792794" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="17.505929" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.201835" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9.201835" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="17.505929" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15.261579" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="4.4887" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="8.07966" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="13.914969" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="16.383754" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="15.261579" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9.201835" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="8.07966" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="8.07966" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="10.548444" bestFit="true" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" customHeight="1" ht="25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export.xlsx
+++ b/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>NAME</t>
   </si>
@@ -80,19 +80,52 @@
     <t>Emp_Stat</t>
   </si>
   <si>
-    <t>ag, qwertyt a.</t>
-  </si>
-  <si>
-    <t>May 16 2018</t>
-  </si>
-  <si>
     <t>Flores, Sylvester B.</t>
   </si>
   <si>
-    <t>Apr 16 2018</t>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>BSEE</t>
+  </si>
+  <si>
+    <t>0917</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>May 18 2018</t>
+  </si>
+  <si>
+    <t>LOCAL</t>
+  </si>
+  <si>
+    <t>DMMSU</t>
   </si>
   <si>
     <t>Nov 14 1982</t>
+  </si>
+  <si>
+    <t>s@c.com</t>
+  </si>
+  <si>
+    <t>Tanqui</t>
+  </si>
+  <si>
+    <t>5'6"</t>
+  </si>
+  <si>
+    <t>71 kgs</t>
+  </si>
+  <si>
+    <t>EMPLOYED</t>
   </si>
 </sst>
 </file>
@@ -440,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +484,7 @@
     <col min="1" max="1" width="24.687849" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="21.096889" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.548444" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="4.4887" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="5.83531" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="4.4887" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11.670619" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="12.792794" bestFit="true" customWidth="true" style="0"/>
@@ -460,7 +493,7 @@
     <col min="10" max="10" width="9.201835" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="17.505929" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="15.261579" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="4.4887" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="12.792794" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="8.07966" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="13.914969" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="16.383754" bestFit="true" customWidth="true" style="0"/>
@@ -540,57 +573,62 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
       <c r="C2"/>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
       <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
       <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2">
+        <v>2004</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
